--- a/Homeworks/03BHW/excel solving 5-4.xlsx
+++ b/Homeworks/03BHW/excel solving 5-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vloom\Documents\Masters\Spring 2023\MAE640\Homeworks\03BHW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63A767B-1260-4712-AB98-7B6C81F968F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9BF4F2-4802-4A50-A43D-4800F8EECB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4E832563-B9C8-4301-94F3-F156644D1DE6}"/>
   </bookViews>
@@ -17,29 +17,45 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$A$18</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$A$18,Sheet1!$A$15,Sheet1!$B$15</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$18</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$E$15</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$D$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$D$15</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$B$15</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$A$15</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Sheet1!$B$18</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Sheet1!$C$15</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">7</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$J$18</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$C$15</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$C$18</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$C$18</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">0.001</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Sheet1!$C$15</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Sheet1!$B$18</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
@@ -72,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Want:</t>
   </si>
@@ -162,6 +178,30 @@
   </si>
   <si>
     <t>enth_sum</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>molecular weight</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>all Cp</t>
+  </si>
+  <si>
+    <t>h20</t>
+  </si>
+  <si>
+    <t>o2</t>
+  </si>
+  <si>
+    <t>oh</t>
+  </si>
+  <si>
+    <t>c*</t>
   </si>
 </sst>
 </file>
@@ -513,15 +553,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F02C65B-F52D-44BE-88F1-80E88E804019}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -547,7 +588,7 @@
       </c>
       <c r="B2">
         <f>A15</f>
-        <v>1</v>
+        <v>1.4711627869941151</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -565,7 +606,7 @@
       </c>
       <c r="B3">
         <f>B15</f>
-        <v>0.4</v>
+        <v>0.1149199897255043</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -574,7 +615,7 @@
       </c>
       <c r="B4">
         <f>1-0.5*B2+B3</f>
-        <v>0.9</v>
+        <v>0.37933859622844679</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -583,7 +624,7 @@
       </c>
       <c r="B5">
         <f>2-B2-2*B3</f>
-        <v>0.19999999999999996</v>
+        <v>0.29899723355487634</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -655,7 +696,7 @@
         <v>81.55</v>
       </c>
       <c r="C11">
-        <v>-15</v>
+        <v>-15.01</v>
       </c>
       <c r="D11">
         <v>0.313</v>
@@ -682,21 +723,28 @@
       <c r="D14" t="s">
         <v>19</v>
       </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1</v>
+        <v>1.4711627869941151</v>
       </c>
       <c r="B15">
-        <v>0.4</v>
+        <v>0.1149199897255043</v>
       </c>
       <c r="C15">
-        <f>(2-A15-2*B15)/(B15+B15^2-0.5*A15)^0.5</f>
-        <v>0.81649658092772548</v>
+        <f>(2-A15-2*B15)/(B15+B15^2-0.5*A15*B15)^0.5</f>
+        <v>1.4320423593851024</v>
       </c>
       <c r="D15">
         <f>F2^(-0.5)*A15*(-0.5*A15+3)/(B15^0.5 * (1-0.5*A15+B15))</f>
-        <v>0.62112999374994149</v>
+        <v>3.6635963827636262</v>
+      </c>
+      <c r="E15">
+        <f>B15+B15^2-0.5*A15*B15</f>
+        <v>4.3593587581060328E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -733,43 +781,143 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>4623.9597015776499</v>
+        <v>3584.5167609445325</v>
       </c>
       <c r="B18">
         <f>IF(A18&lt;1500,10^(-0.0000000000089733*A18^4 + 0.000000039265*A18^3 - 0.000064595*A18^2 + 0.0493*A18 - 16.451), 10^(0.000000000030374*A18^3 - 0.00000038141*A18^2 + 0.0017*A18 - 2.436))</f>
-        <v>1.8738094275215136</v>
+        <v>1.4320423594143752</v>
       </c>
       <c r="C18">
         <f>IF(A18&lt;1500, 10^(0.000000000051208*A18^4 - 0.00000022402*A18^3 + 0.00036861*A18^2 - 0.2823*A18 + 96.794), 10^(-0.00000000018559*A18^3 + 0.0000023375*A18^2 - 0.0105*A18 + 16.715))</f>
-        <v>0.62112931486844924</v>
+        <v>3.6635963836657206</v>
       </c>
       <c r="D18">
         <f>A15</f>
-        <v>1</v>
+        <v>1.4711627869941151</v>
       </c>
       <c r="E18">
         <f>B15</f>
-        <v>0.4</v>
+        <v>0.1149199897255043</v>
       </c>
       <c r="F18">
         <f>B2*((-57800*4.184)+A18*(B7+C7*(A18/1000)+D7*(A18/1000)^2) - 298*(B7+C7*(298/1000)+D7*(298/1000)^2))</f>
-        <v>-6793.8487214869001</v>
+        <v>-79461.025733687537</v>
       </c>
       <c r="G18">
-        <f>B3*((-57800*4.184)+A18*(B8+C8*(A18/1000)+D8*(A18/1000)^2) - 298*(B8+C8*(298/1000)+D8*(298/1000)^2))</f>
-        <v>-23941.764373757487</v>
+        <f>B3*((A18*(B8+C8*(A18/1000)+D8*(A18/1000)^2)-298*(B8+C8*(298/1000)+D8*(298/1000)^2)))</f>
+        <v>15918.644219164886</v>
       </c>
       <c r="H18">
-        <f>B4*((-57800*4.184)+A18*(B9+C9*(A18/1000)+D9*(A18/1000)^2) - 298*(B9+C9*(298/1000)+D9*(298/1000)^2))</f>
-        <v>-58639.915412869086</v>
+        <f>B4*(A18*(B9+C9*(A18/1000)+D9*(A18/1000)^2) - 298*(B9+C9*(298/1000)+D9*(298/1000)^2))</f>
+        <v>48882.085655972674</v>
       </c>
       <c r="I18">
-        <f>B5*((-57800*4.184)+A18*(B11+C11*(A18)^(-0.25)+D11*(A18)^(-0.75)) - 298*(B11+C11*(298)^(-0.25)+D11*(298)^(-0.75)))</f>
-        <v>20722.573610447187</v>
+        <f>B5*((10060*4.184)+A18*(B11+C11*(A18)^(-0.25)+D11*(A18)^(-0.75)+E11*A18) - 298*(B11+C11*(298)^(-0.25)+D11*(298)^(-0.75)+E11*298))</f>
+        <v>14660.295859481492</v>
       </c>
       <c r="J18">
         <f>SUM(F18:I18)</f>
-        <v>-68652.954897666277</v>
+        <v>9.3151174951344728E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <f>-0.5*B2+3</f>
+        <v>2.2644186065029426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f>1.471/B21</f>
+        <v>0.64961487057896095</v>
+      </c>
+      <c r="B22">
+        <f>0.115/B21</f>
+        <v>5.078566289366452E-2</v>
+      </c>
+      <c r="C22">
+        <f>0.379/B21</f>
+        <v>0.16737188031912045</v>
+      </c>
+      <c r="D22">
+        <f>0.299/B21</f>
+        <v>0.13204272352352772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f>A22*18+B22*32+C22*2+D22*17</f>
+        <v>15.897678943556775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <f>B7+C7*(A18/1000)+D7*(A18/1000)^2</f>
+        <v>55.168779895370932</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <f>B8+C8*(A18/1000)+D8*(A18/1000)^2</f>
+        <v>41.137627081725711</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <f>B9+C9*(A18/1000)+D9*(A18/1000)^2</f>
+        <v>38.290802385587313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <f>B11+C11*A18^(-0.25)+D11*A18^(-0.75)+E11*A18</f>
+        <v>7.9204685918372206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <f>SUM(B26:B29)</f>
+        <v>142.51767795452116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <f>B30/(B30-8.314)</f>
+        <v>1.0619506121346201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <f>SQRT(8.314*3584.5*1000/(1.06195*15.898))</f>
+        <v>1328.6054251898699</v>
       </c>
     </row>
   </sheetData>

--- a/Homeworks/03BHW/excel solving 5-4.xlsx
+++ b/Homeworks/03BHW/excel solving 5-4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vloom\Documents\Masters\Spring 2023\MAE640\Homeworks\03BHW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veronica\Documents\MAE640\Homeworks\03BHW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9BF4F2-4802-4A50-A43D-4800F8EECB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1555CE8-626A-4061-BB5E-BB924FCA3936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4E832563-B9C8-4301-94F3-F156644D1DE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4E832563-B9C8-4301-94F3-F156644D1DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Want:</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>c*</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>cp_total</t>
   </si>
 </sst>
 </file>
@@ -217,12 +223,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD4C1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,14 +249,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFD4C1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -545,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -555,17 +573,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F02C65B-F52D-44BE-88F1-80E88E804019}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,11 +601,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <f>A15</f>
         <v>1.4711627869941151</v>
       </c>
@@ -600,34 +619,34 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <f>B15</f>
         <v>0.1149199897255043</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f>1-0.5*B2+B3</f>
         <v>0.37933859622844679</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f>2-B2-2*B3</f>
         <v>0.29899723355487634</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -635,7 +654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -649,7 +668,7 @@
         <v>-2.0234999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -663,7 +682,7 @@
         <v>-0.74985999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -677,7 +696,7 @@
         <v>-0.32673999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -688,7 +707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -705,12 +724,12 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -727,7 +746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.4711627869941151</v>
       </c>
@@ -747,8 +766,8 @@
         <v>4.3593587581060328E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
@@ -779,8 +798,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>3584.5167609445325</v>
       </c>
       <c r="B18">
@@ -820,12 +839,7 @@
         <v>9.3151174951344728E-7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -834,7 +848,7 @@
         <v>2.2644186065029426</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>1.471/B21</f>
         <v>0.64961487057896095</v>
@@ -852,18 +866,21 @@
         <v>0.13204272352352772</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1">
         <f>A22*18+B22*32+C22*2+D22*17</f>
         <v>15.897678943556775</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -872,7 +889,7 @@
         <v>55.168779895370932</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -881,7 +898,7 @@
         <v>41.137627081725711</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -890,7 +907,7 @@
         <v>38.290802385587313</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -899,29 +916,36 @@
         <v>7.9204685918372206</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
       <c r="B30">
         <f>SUM(B26:B29)</f>
         <v>142.51767795452116</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B31">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1">
         <f>B30/(B30-8.314)</f>
         <v>1.0619506121346201</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <f>SQRT(8.314*3584.5*1000/(1.06195*15.898))</f>
         <v>1328.6054251898699</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -931,7 +955,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
